--- a/elesa 19-20/ID & tshirts/Joint Pending List.xlsx
+++ b/elesa 19-20/ID & tshirts/Joint Pending List.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>Offline</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>M</t>
   </si>
@@ -104,7 +101,7 @@
     <t xml:space="preserve">Web developer </t>
   </si>
   <si>
-    <t>Online by Arun</t>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,155 +445,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
